--- a/docs/ST3/ST3_13.08.2024_output.xlsx
+++ b/docs/ST3/ST3_13.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731669735.5561275</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731669737.5788682</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669735.5561275.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669737.5788682.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.65</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>281.27</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731669737.7714148</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731669738.781596</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669737.7714148.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669738.781596.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>280.98</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>280.16</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.8199999999999932</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731669739.3119447</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731669741.4223108</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669739.3119447.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669741.4223108.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>280.39</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>279.9</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.4900000000000091</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731669741.8404093</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731669744.7296097</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669741.8404093.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669744.7296097.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>280.08</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>280.93</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.8500000000000227</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731669745.2053888</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731669746.6750386</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669745.2053888.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669746.6750386.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>280.86</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>280.98</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731669753.5562878</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731669755.3123534</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669753.5562878.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669755.3123534.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>280.65</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>281.27</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731669755.484296</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731669756.3441792</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669755.484296.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669756.3441792.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>280.98</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>280.16</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.8199999999999932</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731669756.721271</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731669758.44138</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669756.721271.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669758.44138.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>280.39</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>279.9</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.4900000000000091</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731669758.7193627</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731669761.0723858</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669758.7193627.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669761.0723858.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>280.08</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>280.93</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.8500000000000227</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731669761.5040379</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731669762.6833205</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669761.5040379.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669762.6833205.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>280.86</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>280.98</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731669769.4332066</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731669771.6320236</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669769.4332066.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669771.6320236.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>281.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>281.98</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731669773.3140476</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731669774.2753391</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669773.3140476.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669774.2753391.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>281.62</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>281.27</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3500000000000227</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731669775.7625368</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731669777.0803273</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669775.7625368.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669777.0803273.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>281.12</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>280.91</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2099999999999795</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731669779.275547</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731669780.74807</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669779.275547.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669780.74807.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>281.62</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>281.57</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1267,95 +1367,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731669783.8575408</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731669783.8575408.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731669783.8575408.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>283.61</v>
       </c>
-      <c r="J17" t="n">
-        <v>283.61</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>283.49</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731669789.2769918</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731669791.2540667</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669789.2769918.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669791.2540667.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>129.77</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>130.18</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.4099999999999966</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731669792.8341348</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731669796.3191626</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669792.8341348.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669796.3191626.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>130.01</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>130</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731669797.965592</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731669798.74677</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669797.965592.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669798.74677.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>130.12</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>130.21</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731669799.4712613</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731669800.1508775</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669799.4712613.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669800.1508775.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>130.12</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>130.1</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731669801.657147</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731669802.1540236</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669801.657147.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669802.1540236.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>130.29</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>130.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1571,95 +1707,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731669802.412439</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731669802.412439.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731669802.412439.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>130.39</v>
       </c>
-      <c r="J23" t="n">
-        <v>130.39</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>129.99</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731669811.5422661</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731669812.2114084</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669811.5422661.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669812.2114084.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6440.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6431</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>9.5</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731669812.529579</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731669813.3555956</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669812.529579.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669813.3555956.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6430.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6429.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731669821.3032618</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731669823.345797</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669821.3032618.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669823.345797.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6447</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6450.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>3.5</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731669824.8702035</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731669825.9010818</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669824.8702035.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669825.9010818.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>501.15</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>501.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731669827.008362</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731669829.0243034</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669827.008362.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669829.0243034.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>502.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>504.25</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1.850000000000023</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731669835.3051884</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731669836.9638226</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669835.3051884.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669836.9638226.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>502.7</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>502.9</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731669837.3644185</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731669837.8271425</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669837.3644185.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669837.8271425.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>502.9</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>502.6</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2999999999999545</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731669838.1963959</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731669838.7727087</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669838.1963959.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669838.7727087.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>502.65</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>504.05</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-1.400000000000034</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731669842.1249373</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731669842.5340068</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669842.1249373.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669842.5340068.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>502.45</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>502.95</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731669843.3240576</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731669844.2514274</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669843.3240576.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669844.2514274.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>227.444</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>227.63</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.186000000000007</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731669849.9395978</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731669851.0341942</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669849.9395978.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669851.0341942.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>226.83</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>226.13</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.7000000000000171</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731669851.381389</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731669852.3345056</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669851.381389.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669852.3345056.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>226.32</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>226.25</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731669853.2722769</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731669853.970948</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669853.2722769.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669853.970948.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>226.05</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>226.05</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731669856.03585</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731669856.3392231</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669856.03585.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669856.3392231.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>225.71</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>225.19</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.5200000000000102</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2343,95 +2569,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731669858.4391932</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731669858.4391932.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731669858.4391932.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>226.43</v>
       </c>
-      <c r="J38" t="n">
-        <v>226.43</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>226.9</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.4699999999999989</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731669863.1188323</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731669863.6534855</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669863.1188323.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669863.6534855.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1033.6</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1030</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731669867.1251724</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731669868.011381</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669867.1251724.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669868.011381.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1043.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1043</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731669869.1983728</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731669870.5321157</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669869.1983728.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669870.5321157.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1045</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1041.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-3.200000000000045</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731669873.8740096</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731669874.5549111</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669873.8740096.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669874.5549111.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1050.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1050.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.3999999999998636</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731669875.284986</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731669877.513125</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669875.284986.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669877.513125.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1052</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1051.6</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731669882.8530164</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731669885.243798</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669882.8530164.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669885.243798.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>12.133</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>12.191</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.05800000000000161</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731669891.9048824</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731669892.3806689</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669891.9048824.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669892.3806689.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>12.173</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>12.164</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.009000000000000341</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731669893.2052174</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731669894.2842212</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669893.2052174.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669894.2842212.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>12.176</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>12.165</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.01100000000000101</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731669894.299593</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731669895.28319</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669894.299593.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669895.28319.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>12.165</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>12.158</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731669896.7586322</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731669897.5762212</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669896.7586322.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669897.5762212.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>12.177</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>12.173</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.003999999999999559</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2907,95 +3199,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731669899.0780087</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731669899.0780087.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731669899.0780087.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>12.177</v>
       </c>
-      <c r="J49" t="n">
-        <v>12.177</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>12.174</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731669908.4646902</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731669909.2595742</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669908.4646902.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669909.2595742.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>128.46</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>129</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -3003,51 +3307,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731669909.6822352</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731669910.5343883</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669909.6822352.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669910.5343883.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>128.84</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>129.08</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3055,51 +3365,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731669911.486897</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731669912.6494749</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669911.486897.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669912.6494749.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>129.04</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>128.68</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.3599999999999852</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -3107,51 +3423,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731669918.2047122</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731669918.8859406</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669918.2047122.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669918.8859406.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>128.5</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>128.2</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3159,51 +3481,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731669923.1603684</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731669923.5568058</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731669923.1603684.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731669923.5568058.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>165</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>165.06</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3211,51 +3539,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731669931.4452908</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731669932.0917044</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731669931.4452908.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731669932.0917044.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>165.38</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>165.22</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3263,51 +3597,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731669933.0701823</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731669935.385493</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731669933.0701823.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731669935.385493.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>165.38</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>165.34</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3315,95 +3655,107 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731669937.57552</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731669937.57552.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731669937.57552.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>164.86</v>
       </c>
-      <c r="J57" t="n">
-        <v>164.86</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>164.72</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.1400000000000148</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731669938.5258236</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731669939.2878797</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731669938.5258236.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731669939.2878797.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>50.24</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>50.21</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3411,51 +3763,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731669941.8175218</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731669942.6526444</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731669941.8175218.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731669942.6526444.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>50.32</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>50.265</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3463,51 +3821,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731669955.4022489</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731669956.3079472</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731669955.4022489.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731669956.3079472.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>50.055</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>50.065</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3515,51 +3879,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731669969.1256373</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731669970.7165287</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731669969.1256373.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731669970.7165287.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1399.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1400</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3567,51 +3937,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731669972.9063091</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731669974.0748253</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731669972.9063091.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731669974.0748253.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1400.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1398.6</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-2.200000000000045</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3619,51 +3995,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731669977.18289</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731669978.050694</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669977.18289.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669978.050694.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>59.82</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>59.79</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3671,51 +4053,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731669981.7632692</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731669982.5676153</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669981.7632692.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669982.5676153.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>60.02</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>60.01</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3723,51 +4111,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731669988.0066826</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731669989.6375659</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669988.0066826.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669989.6375659.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>59.93</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>59.79</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -3775,51 +4169,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731669989.6535249</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731669990.079835</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669989.6535249.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669990.079835.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>59.79</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>59.71</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3827,51 +4227,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731669990.948804</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731669992.268736</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669990.948804.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669992.268736.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>59.81</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>59.9</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.08999999999999631</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -3879,51 +4285,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731669993.7403374</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731669994.3498719</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669993.7403374.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669994.3498719.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>59.79</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>59.64</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3931,95 +4343,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731669994.9678075</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731669994.9678075.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731669994.9678075.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>59.65</v>
       </c>
-      <c r="J69" t="n">
-        <v>59.65</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>59.57</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731669995.62959</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731669997.3068836</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731669995.62959.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731669997.3068836.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>99.17</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>99.2</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4027,51 +4451,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731669997.9444206</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731669999.6004107</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731669997.9444206.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731669999.6004107.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>99.23999999999999</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>99.62</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.3800000000000097</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -4079,51 +4509,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731670000.3329694</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731670002.5990222</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670000.3329694.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670002.5990222.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>99.72</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>99.92</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4131,51 +4567,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731670005.9401522</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731670007.8074827</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670005.9401522.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670007.8074827.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>99.72</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>99.68000000000001</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4183,51 +4625,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731670007.8244412</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731670008.3443825</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670007.8244412.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670008.3443825.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>99.68000000000001</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>99.70999999999999</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.02999999999998693</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4235,51 +4683,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731670009.1786675</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731670010.1964219</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670009.1786675.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670010.1964219.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>99.93000000000001</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>100.53</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -4287,51 +4741,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731670011.161203</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731670011.6496832</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670011.161203.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670011.6496832.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>100.45</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>100.38</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.07000000000000739</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4339,51 +4799,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731670015.1473029</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731670015.8104181</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670015.1473029.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670015.8104181.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>56.16</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>56.2</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4391,51 +4857,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731670026.0763366</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731670026.8131998</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670026.0763366.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670026.8131998.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>56.62</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>56.64</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4443,51 +4915,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731670029.7978601</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731670030.8253045</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670029.7978601.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670030.8253045.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>154.12</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>154.12</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4495,51 +4973,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731670031.87685</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731670032.4450817</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670031.87685.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670032.4450817.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>154.48</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>154.86</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.3800000000000239</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4547,51 +5031,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731670032.8802252</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731670034.339476</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670032.8802252.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670034.339476.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>154.72</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>154.38</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.3400000000000034</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -4599,51 +5089,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731670034.6622832</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731670035.4256647</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670034.6622832.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670035.4256647.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>154.5</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>154.66</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -4651,51 +5147,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731670036.3307362</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731670038.2303576</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670036.3307362.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670038.2303576.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>155.32</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>155.86</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.5400000000000205</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4703,51 +5205,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731670038.5212555</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731670038.6751378</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670038.5212555.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670038.6751378.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>155.36</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>156.28</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.9199999999999875</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -4755,51 +5263,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731670039.6020377</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731670040.0156302</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670039.6020377.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670040.0156302.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>155.98</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>157.68</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -4807,51 +5321,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731670040.5470893</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731670041.988264</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670040.5470893.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670041.988264.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>157.04</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>157.64</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -4859,51 +5379,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731670042.6158605</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731670043.1768346</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670042.6158605.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670043.1768346.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>157.82</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>157.4</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.4199999999999875</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -4911,51 +5437,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731670045.7661097</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731670046.8911262</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731670045.7661097.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731670046.8911262.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>0.2998</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>0.2989</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.0009000000000000119</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -4963,51 +5495,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731670057.1585028</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731670058.2032785</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731670057.1585028.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731670058.2032785.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>0.302</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>0.304</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.002000000000000002</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -5015,51 +5553,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731670058.6921194</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731670061.1733758</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670058.6921194.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670061.1733758.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>20.489</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>20.441</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-0.04800000000000182</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -5067,51 +5611,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731670062.1162326</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731670063.2016785</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670062.1162326.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670063.2016785.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>20.482</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>20.536</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.05400000000000205</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -5119,51 +5669,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731670064.082164</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731670066.4716525</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670064.082164.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670066.4716525.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>20.557</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>20.515</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.04199999999999804</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -5171,51 +5727,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731670071.1298032</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731670072.2834675</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670071.1298032.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670072.2834675.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>20.546</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>20.546</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5223,51 +5785,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731670073.7634377</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731670077.3037286</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670073.7634377.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670077.3037286.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>20.522</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>20.534</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.01200000000000045</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -5275,51 +5843,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731670077.3206832</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731670077.7333882</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670077.3206832.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670077.7333882.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>20.534</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>20.523</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.01099999999999923</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -5327,51 +5901,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731670082.167015</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731670084.2559898</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670082.167015.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670084.2559898.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>689.15</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>688.95</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-0.1999999999999318</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -5379,51 +5959,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731670091.8030415</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731670093.4999206</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670091.8030415.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670093.4999206.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>684.85</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>686.9</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-2.049999999999955</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -5431,51 +6017,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731670094.581034</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731670095.053215</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670094.581034.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670095.053215.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>688.3</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>687.65</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.6499999999999773</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -5483,51 +6075,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731670097.575744</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731670099.1866555</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670097.575744.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670099.1866555.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>153.5</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>154.56</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-1.060000000000002</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -5535,51 +6133,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731670099.20361</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731670099.9897053</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670099.20361.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670099.9897053.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>154.56</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>155.18</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -5587,51 +6191,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731670110.6393878</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731670111.6670797</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670110.6393878.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670111.6670797.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>157.16</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>156.99</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-0.1699999999999875</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -5639,44 +6249,50 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731670113.7841802</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731670113.7841802.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731670113.7841802.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>156.23</v>
       </c>
-      <c r="J102" t="n">
-        <v>156.23</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>156.16</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -5737,16 +6353,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4499999999999886</v>
+        <v>0.3299999999999841</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04499999999999886</v>
+        <v>0.03299999999999841</v>
       </c>
       <c r="E2" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
@@ -5803,19 +6419,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04000000000000625</v>
+        <v>0.03999999999999204</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.005714285714286608</v>
+        <v>0.005714285714284577</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.06999999999999998</v>
+        <v>0.06000000000000003</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -5847,16 +6463,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04100000000000037</v>
+        <v>0.04400000000000048</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006833333333333395</v>
+        <v>0.007333333333333414</v>
       </c>
       <c r="E7" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="F7" t="n">
         <v>0.06</v>
@@ -5869,19 +6485,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6800000000000068</v>
+        <v>0.2800000000000296</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1133333333333345</v>
+        <v>0.0466666666666716</v>
       </c>
       <c r="E8" t="n">
-        <v>0.52</v>
+        <v>0.21</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -5891,19 +6507,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.104000000000013</v>
+        <v>1.574000000000012</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1840000000000022</v>
+        <v>0.2623333333333354</v>
       </c>
       <c r="E9" t="n">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
@@ -5979,19 +6595,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.6099999999999852</v>
+        <v>-0.539999999999992</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1524999999999963</v>
+        <v>-0.134999999999998</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3999999999999999</v>
+        <v>-0.3599999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="14">
@@ -6001,19 +6617,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1399999999999864</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03499999999999659</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
